--- a/data/Popular_Names_Dates.xlsx
+++ b/data/Popular_Names_Dates.xlsx
@@ -7,6 +7,8 @@
     <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Sheet3" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Sheet5" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Sheet4" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Sheet6" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="219">
   <si>
     <t>Rank</t>
   </si>
@@ -647,6 +649,30 @@
   </si>
   <si>
     <t>"January 10, 2023 12:13 AM"</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>continue processing</t>
+  </si>
+  <si>
+    <t>in sheet 4</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Haley</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Riverwood</t>
   </si>
 </sst>
 </file>
@@ -656,7 +682,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss am/pm"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -711,6 +737,12 @@
       <color rgb="FF161616"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -743,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -793,6 +825,12 @@
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -814,6 +852,14 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -21449,4 +21495,72 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="12">
+      <c r="A12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>